--- a/test-files/expression-data-test-sheets/expression_sheet_name_not_in_optparams.xlsx
+++ b/test-files/expression-data-test-sheets/expression_sheet_name_not_in_optparams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\OneDrive\GRNsight\test-files\expression-data-test-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1243BDC3-B456-452C-B807-1CFDFE8B3935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{1243BDC3-B456-452C-B807-1CFDFE8B3935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F8EE62C4-A19E-404E-915A-D69291A39144}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1380,41 +1380,21 @@
         <v>15</v>
       </c>
       <c r="C1" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1">
         <v>60</v>
       </c>
-      <c r="N1" s="1">
-        <v>60</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1427,38 +1407,18 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1471,38 +1431,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1517,36 +1457,16 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
@@ -1747,7 +1667,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1763,41 +1683,21 @@
         <v>15</v>
       </c>
       <c r="C1" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1">
         <v>60</v>
       </c>
-      <c r="N1" s="1">
-        <v>60</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1810,38 +1710,18 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1854,38 +1734,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1900,36 +1760,16 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1944,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1955,7 +1795,7 @@
     <col min="1" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1963,43 +1803,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1">
         <v>60</v>
       </c>
-      <c r="N1" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2010,40 +1820,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2054,40 +1834,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2100,42 +1850,6 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J11" s="3"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2313,7 +2027,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/test-files/expression-data-test-sheets/expression_sheet_name_not_in_optparams.xlsx
+++ b/test-files/expression-data-test-sheets/expression_sheet_name_not_in_optparams.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\OneDrive\GRNsight\test-files\expression-data-test-sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSloaner\Ona\GRNsight\GRNsight\test-files\expression-data-test-sheets\To Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1243BDC3-B456-452C-B807-1CFDFE8B3935}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F8EE62C4-A19E-404E-915A-D69291A39144}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="optimization_parameters" sheetId="9" r:id="rId8"/>
     <sheet name="threshold_b" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>ACE2</t>
   </si>
@@ -117,16 +116,25 @@
   </si>
   <si>
     <t>dgln3</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>taxon_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +174,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -534,12 +548,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="348">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -889,7 +904,7 @@
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="277" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 3" xfId="277"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1225,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1299,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1360,10 +1375,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1783,7 +1798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1863,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1943,7 +1958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2023,11 +2038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2181,6 +2196,24 @@
       <c r="E16" s="2">
         <v>15</v>
       </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5">
+        <v>559292</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2194,7 +2227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
